--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61CD711F-B189-4BF0-B0CE-353584D8016A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3B40BEF7-65BD-490E-A979-92A6D234BA7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,22 @@
   </si>
   <si>
     <t>8.出签率会显示0.0%，小数点后若是0就不显示了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.web端迁移到云服务器后无法登录，估计是url用了localhost的问题，要求bug解决后，本地服务器和云服务器都能用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.默认头像有时会应用别的头像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -486,6 +502,9 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -522,6 +541,9 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -543,6 +565,9 @@
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
@@ -573,6 +598,11 @@
     <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3B40BEF7-65BD-490E-A979-92A6D234BA7D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6A258668-1AC8-4917-9F31-9A6238539874}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,18 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.班级名太长班课列表界面异常,所有长度不确定从服务器获取数据且只显示一行文本的即使加了maxLength="20"的TextView都设置singleLength="true"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.班级名太长班课列表界面异常,所有长度不确定从服务器获取数据且只显示一行文本的即使加了maxLength="20"的TextView都设置singleLength="true"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.班级名太长班课列表界面异常,所有长度不确定从服务器获取数据且只显示一行文本的即使加了maxLength="20"的TextView都设置singleLength="true"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.时间/时区不对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +127,42 @@
   </si>
   <si>
     <t>13.默认头像有时会应用别的头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.班级名太长班课列表界面异常,所有长度不确定从服务器获取数据且只显示一行文本的即使加了maxLength="20"的TextView都设置singleLine="true"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.班级名太长班课列表界面异常,所有长度不确定从服务器获取数据且只显示一行文本的即使加了maxLength="20"的TextView都设置singleLine="true"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.班级名太长班课列表界面异常,所有长度不确定从服务器获取数据且只显示一行文本的即使加了maxLength="20"的TextView都设置singleLine="true"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.上传的文件名过长会报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.上传的文件名过长老师端布局会不协调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.学习目标不能展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.签到结束后把未签到的修改成已签到，提示修改成功，实际状态没有变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -503,106 +527,133 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6A258668-1AC8-4917-9F31-9A6238539874}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8C122E9C-DA67-4D30-8CAB-ED4B6ABD8CAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,26 @@
   </si>
   <si>
     <t>11.签到结束后把未签到的修改成已签到，提示修改成功，实际状态没有变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生进入没有头像的班课，会提示图片加载失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.个人信息界面和修改个人信息界面头像改成方的，截图也改成方的，直接用CropActivity,修改个人信息里的默认头像改成@mipmap/btn_add_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.创建班课成功后和加入班课的默认头像改用默认班课头像@mipmap/ic_classavatar_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.成员列表和老师查看学生详情里的默认头像改为@mipmap/ic_useravatar_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -550,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -629,6 +649,9 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
@@ -645,15 +668,29 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8C122E9C-DA67-4D30-8CAB-ED4B6ABD8CAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5C81BB43-3DEB-4B71-BE30-9EFF031C6A8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>13.成员列表和老师查看学生详情里的默认头像改为@mipmap/ic_useravatar_def</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.把模拟器时间调成东八区或者app安装在手机上，签完到的时间是错误的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.把模拟器时间调成东八区或者app安装在手机上，刚发布的通知的时间是错误的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,7 +529,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -594,6 +606,9 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
@@ -605,6 +620,9 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
@@ -631,16 +649,22 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
@@ -660,6 +684,9 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
@@ -683,6 +710,9 @@
     <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5C81BB43-3DEB-4B71-BE30-9EFF031C6A8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{89AF5B56-E7BB-4188-B03B-6765FDD523EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.学生点击未读通知之后不要刷新页面，把小红点去掉即可</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,6 +672,9 @@
       <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -694,6 +701,9 @@
     <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>37</v>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{89AF5B56-E7BB-4188-B03B-6765FDD523EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C9738340-6914-4849-8251-894F6E18B08C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,22 @@
   </si>
   <si>
     <t>8.学生点击未读通知之后不要刷新页面，把小红点去掉即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.进入班课后立刻关闭，异步方法执行异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.文件上传成功的提示问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.学生进入班课第一个页面切换成成员后作业红点不显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -547,7 +563,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -575,7 +591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -591,8 +607,11 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -606,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -619,8 +638,11 @@
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -634,7 +656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -647,8 +669,11 @@
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -662,7 +687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -675,8 +700,11 @@
       <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -686,8 +714,11 @@
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -698,7 +729,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -709,15 +740,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -725,12 +759,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C9738340-6914-4849-8251-894F6E18B08C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4408D59B-CCF6-4AC6-AB23-1D46D7A4F0F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>16.学生进入班课第一个页面切换成成员后作业红点不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.作业名过长显示有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.version.json返回的字符编码有问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -777,6 +785,16 @@
         <v>48</v>
       </c>
     </row>
+    <row r="18" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4408D59B-CCF6-4AC6-AB23-1D46D7A4F0F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{28273405-4E89-447F-AAF0-DF8D2E97B894}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,10 @@
   </si>
   <si>
     <t>18.version.json返回的字符编码有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -780,17 +784,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{28273405-4E89-447F-AAF0-DF8D2E97B894}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8EC6E41E-81DA-4B3A-838E-F475C675A472}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>代延绪</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,34 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解決</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.作业名太长会导致经验值明细界面文字重叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.姓名改成maxLength="5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.使用默认头像的用户刷新用户界面会一直刷新不结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.班课详情头像尽量少占用空间，右边第三行的数据显示不开，第三行三个字段的间隙也减少些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.班课成员太多，成员ListView 加载会头像错乱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -602,6 +630,9 @@
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -664,14 +695,23 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -726,8 +766,14 @@
       <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,6 +797,9 @@
       <c r="C12" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -767,6 +816,9 @@
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
@@ -778,28 +830,49 @@
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B7467413-F785-439F-BC92-5EDA8923DB08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>代延绪</t>
   </si>
@@ -143,9 +149,6 @@
   </si>
   <si>
     <t>15.进入班课后立刻关闭，异步方法执行异常</t>
-  </si>
-  <si>
-    <t>测试中</t>
   </si>
   <si>
     <t>16.作业名太长会导致经验值明细界面文字重叠</t>
@@ -172,14 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,352 +185,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -541,251 +207,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -796,61 +220,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1108,30 +488,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.3333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="53.3333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.3333333333333" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88333333333333" style="2"/>
+    <col min="1" max="1" width="53.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1199,7 +579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1219,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1239,7 +619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1259,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1273,7 +653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1293,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1313,7 +693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1341,7 +721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -1355,7 +735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:3">
+    <row r="14" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1366,7 +746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1380,56 +760,59 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
+    <row r="17" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:3">
+    <row r="18" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>50</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
+++ b/基于Android的智慧移动课堂学习系统/App测试bug记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\11602\Documents\StudioProjects\SmartClass\基于Android的智慧移动课堂学习系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B7467413-F785-439F-BC92-5EDA8923DB08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{731DFAD5-C876-4FD2-AC20-44F49C3F48DF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="7956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>代延绪</t>
   </si>
@@ -169,14 +169,19 @@
     <t>18.version.json返回的字符编码有问题</t>
   </si>
   <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>19.使用默认头像的用户刷新用户界面会一直刷新不结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +192,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -211,12 +224,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -578,6 +594,9 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -652,6 +671,9 @@
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -745,6 +767,9 @@
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -798,6 +823,9 @@
       <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -806,13 +834,16 @@
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>